--- a/drugs.xlsx
+++ b/drugs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="682">
   <si>
     <t xml:space="preserve">Dosage form</t>
   </si>
@@ -47,6 +47,30 @@
     <t xml:space="preserve">MAH</t>
   </si>
   <si>
+    <t xml:space="preserve">Reg number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Withdrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atc code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old trade name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abilify - Aspnr</t>
   </si>
   <si>
@@ -68,6 +92,18 @@
     <t xml:space="preserve">OTSUKA PHARMACEUTICAL EUROPE LIMITED</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N05AX12 Aripiprazole Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription only Not classified as a narcotic Centrally approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:2002-10-23Abilitat</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 020039 </t>
   </si>
   <si>
@@ -77,6 +113,9 @@
     <t xml:space="preserve">         BRISTOL-MYERS SQUIBB S.R.L.</t>
   </si>
   <si>
+    <t xml:space="preserve">Prescription only Not classified as a narcotic Centrally approved                                e </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 020040 </t>
   </si>
   <si>
@@ -89,6 +128,9 @@
     <t xml:space="preserve"> 5 mg</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 040988 </t>
   </si>
   <si>
@@ -143,6 +185,12 @@
     <t xml:space="preserve">BAYER AG</t>
   </si>
   <si>
+    <t xml:space="preserve">Unspecified Not classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not classified as a narcotic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Abcdin - Aspnr</t>
   </si>
   <si>
@@ -227,6 +275,9 @@
     <t xml:space="preserve">ABBOT LABORATORIES</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1953-01-01PENICILLIN-PROCAINOCHKALIUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abidec - Aspnr</t>
   </si>
   <si>
@@ -254,6 +305,9 @@
     <t xml:space="preserve"> 300.00 ie</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1951-02-19ABOCILLINA/S</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 500105 </t>
   </si>
   <si>
@@ -332,6 +386,15 @@
     <t xml:space="preserve">AMDIPHARM LIMITED</t>
   </si>
   <si>
+    <t xml:space="preserve">J01FA01 Erythromycin Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription only Not classified as a narcotic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:2005-02-25Abboticin</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 550331 </t>
   </si>
   <si>
@@ -344,6 +407,9 @@
     <t xml:space="preserve">ABBOTT LABORATORIES LTD</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1972-10-05ERYTHROMYCIN</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 580116 </t>
   </si>
   <si>
@@ -362,6 +428,12 @@
     <t xml:space="preserve"> SIRUP</t>
   </si>
   <si>
+    <t xml:space="preserve">A11BA Multivitamins, plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No prescription (OTC) Not classified as a narcotic </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 630064 </t>
   </si>
   <si>
@@ -374,6 +446,9 @@
     <t xml:space="preserve">ABBOTT SCANDINAVIA AB</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1972-10-05ERYTHROMYCINDatum:2005-02-25Abboticin</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 730006 </t>
   </si>
   <si>
@@ -401,6 +476,12 @@
     <t xml:space="preserve">JANSSEN-CILAG AB</t>
   </si>
   <si>
+    <t xml:space="preserve">D10AD01 Tretinoin Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:1974-03-22RETIN-ADatum:2005-02-25Aberela</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 730032 </t>
   </si>
   <si>
@@ -419,6 +500,9 @@
     <t xml:space="preserve">CILAG AG</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1974-03-22RETIN-A</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 740082 </t>
   </si>
   <si>
@@ -434,6 +518,9 @@
     <t xml:space="preserve"> 0,025 %</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:2005-02-25Aberela</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 760002 </t>
   </si>
   <si>
@@ -446,6 +533,9 @@
     <t xml:space="preserve">         ABBOTT SCANDINAVIA AB</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1980-07-09RECIOMYCIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Absenor - Aspnr</t>
   </si>
   <si>
@@ -467,6 +557,12 @@
     <t xml:space="preserve">ORION CORPORATION</t>
   </si>
   <si>
+    <t xml:space="preserve">N03AG01 Valproic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:1995-06-29ERGENYLDatum:1995-08-22ERGENYLDatum:2005-03-14Absenor</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 760106 </t>
   </si>
   <si>
@@ -488,6 +584,9 @@
     <t xml:space="preserve">G.D. SEARLE &amp; CO</t>
   </si>
   <si>
+    <t xml:space="preserve">A03AX13 Silicones No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbokinase - Aspnr</t>
   </si>
   <si>
@@ -500,6 +599,9 @@
     <t xml:space="preserve"> 250 000 IE</t>
   </si>
   <si>
+    <t xml:space="preserve">B01AD04 Urokinase Prescription</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 800090 </t>
   </si>
   <si>
@@ -545,6 +647,9 @@
     <t xml:space="preserve"> 860018 </t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1986-09-15ABBOTICINSUCCINATDatum:2005-02-25AbboticinNovum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbodop - Aspnr</t>
   </si>
   <si>
@@ -563,6 +668,12 @@
     <t xml:space="preserve">HOSPIRA ENTERPRISES B.V.</t>
   </si>
   <si>
+    <t xml:space="preserve">C01CA04 Dopamine Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:1987-09-28DOPAMIN</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 870024 </t>
   </si>
   <si>
@@ -575,6 +686,9 @@
     <t xml:space="preserve"> SUBSTANCE FOR INFUSION (I+II)</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:1987-10-22ABBOTICINADD-VANTAGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abboticin-Natriumklorid - Aspnr</t>
   </si>
   <si>
@@ -590,6 +704,9 @@
     <t xml:space="preserve"> 900102 </t>
   </si>
   <si>
+    <t xml:space="preserve">J01CE02 Phenoxymethylpenicillin Prescription</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 900103 </t>
   </si>
   <si>
@@ -626,6 +743,12 @@
     <t xml:space="preserve">AMERSHAM HEALTH AS</t>
   </si>
   <si>
+    <t xml:space="preserve">V08CB02 Ferristene Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum:1993-12-01OMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abelcet - Aspnr</t>
   </si>
   <si>
@@ -647,6 +770,9 @@
     <t xml:space="preserve">CEPHALON LIMITED</t>
   </si>
   <si>
+    <t xml:space="preserve">J02AA01 Amphotericin B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Absenor Depot - Aspnr</t>
   </si>
   <si>
@@ -656,17 +782,1338 @@
     <t xml:space="preserve"> Prolonged-release tablet</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum:2005-03-14AbsenorDepot</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 990368 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid Pump - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solution for injection and infusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100 IE/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVO NORDISK A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid InnoLet - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000281 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIFARM AB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Actilyse (I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Powder) – Aspnr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">000629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Powder and solvent for solution for injection/infusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOEHRINGER INGELHEIM PHARMA GMBH &amp; CO KG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Actilyse (II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Solvent) – Aspnr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0006291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000714 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solution for injection, cartridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDARTUUM AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000715 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000716 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activelle - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 010053 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Film-coated tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid FlexPen - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 011034 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solution for injection, pre-filled pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid PenSet - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 011168 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 020570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 030028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylsalicylsyretabletter - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,5 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTRA L�KEMEDEL AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidohexin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340185 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetonal - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340248 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPPOSITORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATHENSTAEDT &amp; REDEKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidum citricum - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB LEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidol-pepsin st�rke I - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOZENGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidol-pepsin st�rke II - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3405361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetyl - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340566 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIKA L�KEMEDEL AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylsalicylsyra - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOTEKARE PAUL NORDSTR�MS FABRIKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3407921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achylin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aconitum anp./gelsemium d.6 - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340896 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASKERSUNDS TEKNISKA FABRIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actaea spic./belladonna d.6 - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340901 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340923 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetysalicylsyra - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3409231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylcholin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 340972 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INJECTION, COMBINATION PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,1 g, 0,2 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F HOFFMAN LA ROCHE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3409721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,3 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3412421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acedicon - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOEHRINGER INGELHEIM INTERNATIONAL GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3415331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidi acetylsalicylici - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341633 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid.acetylsalicylic - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341724 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM FABRIK AUBING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3417241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidum benzoicum oligoplex - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341806 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADAUS AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidum hydrofluoricum oligoplex - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341807 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidum phosphoricum oligoplex - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 342079 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITRUM AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3420791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 350042 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid.diaethylbarbituricum - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 350069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aci-steril - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 351635 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEYL &amp; CO CHEM.-PHARM.FABRIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acaprin vet. - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 361159 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acykal - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 362503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERZ + CO. CHEMISCHE FABRIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidohexin novo - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 371123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRANULATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciform I och II - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 380055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARD LYSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidum nicotinicum - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 390038 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,1 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid.nicotinic - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 390040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 390175 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 430006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 430020 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRISTOL MYERS SQUIBB GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 430172 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 440080 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,05 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetarsol s.v.c. - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 460055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VAGINAL CAPSULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAY &amp; BAKER LTD ENGLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acinine - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 460286 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERUM- &amp; IMPFINSTITUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acton - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 510066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ie/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRING AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actyron - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 520066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBSTANCE FOR INJECTION (I+II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5200665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 520123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acton prolongatum - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 520257 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 ie/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acisan - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530047 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POWDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR MAX DEBUS FABR.CHEM.PHARM. PRODUCTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acedrin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 ie och 100 ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acedrin dep� - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 ie/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530349 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDERLE LABORATORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYANAMID OF GREAT BRITAIN LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 530352 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOR INFUSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540085 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DROPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POWDER FOR MIXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540214 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DRAGEES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin med prokain - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540260 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OINTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aci-jel - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540277 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VAGINAL JELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 540299 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EYE/EAR OINTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550031 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POWDER FOR EYELOTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin med prokain vet. - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550033 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRICULTURAL DIVISION AMERICAN CYANAMID COMPANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550045 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550068 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 ie/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acylanid - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVARTIS PHARMA AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550126 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550184 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STERILE POWDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin-vitamin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 560085 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin V - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 570067 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 570215 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OILSUSPENSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 570298 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTEC CHEMISKE A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5702981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5702982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achromycin med citrat - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580030 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580031 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREDRIKSBERG CHEMISKE FABRIKER A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocrtin 1% med neomycin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580042 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin 1 % med tj�ra - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580154 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LINIMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin vet. - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580242 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetocid - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 580243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITISH SCHERING LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590087 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin 1% med neomycin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590088 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin med kortikotropin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590245 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 590295 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EYE OINTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600290 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 ie/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actidil - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600364 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,5 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE WELLCOME FOUNDATION LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acalo - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 610007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELI LILLY INTERNATIONAL CORP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 610180 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerbine - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 610337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABORATORIE ACBEL S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aconitum - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 620207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCG FARMACEUTISKA AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 620301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acinorm - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 640024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.35 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENZON PHARMA A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acussan - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 640043 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actocortin-comp - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 660053 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 660277 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,4 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 670069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acocillin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 670074 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,33 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACO AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 670174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.67 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD med adenin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 680057 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STERILE SOLUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acedex - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 680063 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acedex med adenin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 680064 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD-adenin stark - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 690136 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAXTER HEALTHCARE SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 700056 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAXTER HEALTHCARE LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD stark - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 700069 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERUMO CORPORATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 700198 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOTEST SERUM INSTITUT GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 710108 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciglumin - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 710109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 710148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,16 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 710205 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POWDER SINGLE DOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 710206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACD adenin stark - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720137 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acolys 1 - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720209 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONCENTRATE FOR PREPARATION OF HAEMODIALYSIS-SOL  I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acolys 2 - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 730013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 740083 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYANAMID GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 760039 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetard - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 760070 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROLONGED-RELEASE TABLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 810150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actrapid Human - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 810173 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 IE/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVO INDUSTRI A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciloc - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 820028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 820029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERCOPHARM A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 820030 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORION CORPORATION, ANIMAL HEALTH DIVISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylcystein - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRISTOL MYERS SQUIBB SPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acinil - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830054 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEXAL A/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830055 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830137 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830173 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 840101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100 IE/ml (penfill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actraphan Human - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 840152 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 850009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 860031 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRICUM AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 860032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 860033 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 860034 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 860223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INFUSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 mg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/S GEA FARMACEUTISK FABRIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 870219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 890007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylcystein mint - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900067 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TABLETS EFFERVESCENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 910037 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHEWABLE TABLET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acipen Solutab - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAMANOUCHI EUROPE BV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actisite - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930267 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THREAD FOR DENTAL USE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,52 mg/cm dent.tr}d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALZA CORPORATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 940100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accupro - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 940187 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G�DECKE GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act-HIB Polio (Solvent (poliovaccin)) - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 950038 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Powder and solvent for suspension for injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENTIS PASTEUR SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act-HIB Polio (Powder (Hib-vaccin)) - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9500381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acellul�rt pertussisvaccin komb.m.difteri och teta - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 950216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suspension for injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciclovir Alpharma - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 960051 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPHARMA APS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciklovir Norcox - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 960082 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR H COX &amp; CO LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 960083 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 960084 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciclovir NM Pharma - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970078 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERICS (UK) LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9700781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciclovir Merck NM - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970099 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIFICE MEDICAL AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciklovir Ratiopharm - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970674 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCKLE GMBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970675 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970676 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 980200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 980335 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 980663 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEINRICH MACK NACHF GMBH &amp; CO KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aclarix - Aspnr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 990129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capsule, hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 990130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -688,6 +2135,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -732,12 +2185,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,7 +2221,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3182,10 +4639,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3196,6 +4653,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="49.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="69.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="68.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,1352 +4684,5882 @@
       <c r="G1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>182700</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>37266</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>39968</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>38142</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>182710</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>37266</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>39968</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>38142</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>182720</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>37266</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>39968</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>38142</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>210320</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>37795</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>39968</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>38142</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="H6" s="0" t="n">
+        <v>215380</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>38168</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>14</v>
+      <c r="K6" s="2" t="n">
+        <v>40349</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>38523</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>215390</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>38168</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>40349</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
+      <c r="M7" s="2" t="n">
+        <v>38523</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>215400</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>38168</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>14</v>
+      <c r="K8" s="2" t="n">
+        <v>40349</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>38523</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>215410</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>38168</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>14</v>
+      <c r="K9" s="2" t="n">
+        <v>40349</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>38523</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>220890</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>38363</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>40479</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>38653</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>233600</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>38733</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>40820</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>38994</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>14</v>
+      <c r="O11" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>12726</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>22647</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>12815</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>12771</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>13789</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>12843</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>13272</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>13636</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>13676</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>14250</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>14307</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>15496</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="M16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>56</v>
+      <c r="O16" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>37520</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>17902</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>22647</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>18674</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>36270</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>18039</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>19725</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>18358</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>18255</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>19009</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>38730</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>18322</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>18994</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>18953</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>38740</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>18365</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>20455</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>18953</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>18678</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>19317</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>40280</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>18746</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>19360</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>19205</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>19054</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>19225</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>46530</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>19736</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>23733</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>20071</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>49420</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>20108</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>23429</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>20404</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>51720</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>20110</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>20772</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>51230</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>20422</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>33055</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>20648</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>110</v>
+        <v>132</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>58310</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>21290</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>28672</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>21609</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>59650</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>21328</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>27851</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>21836</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>71850</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>23072</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>38533</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>39355</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>23456</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>88630</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>26739</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>38503</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>39355</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>27012</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>89250</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>26786</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>40354</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>27194</v>
+      </c>
+      <c r="N33" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>125</v>
+      <c r="O33" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>131</v>
+        <v>158</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>89260</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>26786</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>35155</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>27194</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>90900</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>27227</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>33055</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>27635</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O35" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>91630</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>27694</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>40354</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>27878</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>116</v>
+      <c r="H37" s="0" t="n">
+        <v>91700</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>27771</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>31229</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>27878</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>95070</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>28040</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>29350</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>95080</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>28040</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>29350</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>154</v>
+        <v>186</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>95450</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>28514</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>34881</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>29497</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>99100</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>28515</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>37894</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>34700</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>30334</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>96830</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>29431</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>29875</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>96840</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>29431</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>29875</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>96850</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>29431</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>29875</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>96860</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>29475</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>29875</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>97920</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>29551</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>38533</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>39355</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>30070</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>97000</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>29839</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>32540</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>29903</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>101100</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>30767</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>38564</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>39355</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>30932</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>104460</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>31470</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>31688</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>179</v>
+        <v>214</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>106030</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>31813</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>31940</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>179</v>
+        <v>214</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>106040</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>31813</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>31940</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>106710</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>31957</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>33390</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>32122</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>107060</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>32091</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>33390</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>32178</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>112170</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>33016</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>36525</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>34921</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>33095</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O54" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>112180</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>33016</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>36525</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>34921</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>33095</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>112490</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>33136</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>36525</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>34921</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>33179</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O56" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>115200</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>33651</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>36525</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>37328</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>33676</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>119610</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>34066</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>36891</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>36132</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>34306</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>125220</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>34696</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>35209</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>156980</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>36341</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>36581</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>156990</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>36581</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
